--- a/Docs/lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/lab1/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\ALL\UBB\an3\an3-sem2\Verificarea si validarea sistemelor soft\01_Tasks\Docs\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXANDRA\Desktop\VVSS\Docs\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022F66A-2D0F-460F-8200-73B48B7804DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85B651-DE45-495B-8778-18C3B57EF853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -210,6 +197,111 @@
   </si>
   <si>
     <t>Este clar organizat programul, insa ca arhitectura lipseste repository care se ocupa de operatiile CRUD (nice to have)</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Metoda run() contine un while(true) fara nicio conditie de oprire.</t>
+  </si>
+  <si>
+    <t>Notificator-linia 27</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>TaskList/ TaskOperations</t>
+  </si>
+  <si>
+    <t>Exista doua implementari ale metodei incoming(), una in clasa abstracta TaskList si alta in TasksOperations.</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>DateService</t>
+  </si>
+  <si>
+    <t>String time este folosit direct pentru Integer.parseInt(units[0]), dar nu este verificat daca are formatul corect (HH:mm). Ex(8h:30 eroare)</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Conditia while (i != 1 &amp;&amp; j != 1) este gresita. Se presupune ca i și j se vor opri când ajung la 1, dar bucla se poate bloca sau poate cauza o IndexOutOfBoundsException.</t>
+  </si>
+  <si>
+    <t>Daca apare o exceptie în write(tasks, fos), atunci fos.close() va fi apelat pe un obiect null. Daca apare o eroare la scriere, aceasta este doar logata, dar apelantul metodei nu stie ca scrierea a esuat. readBinary() nu verifica daca fisierul este valid inainte de a incerca sa il proceseze.</t>
+  </si>
+  <si>
+    <t>TaskIO(readbinary, writebinary)</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>TaskIO(linia 179)</t>
+  </si>
+  <si>
+    <t>ArrayTasksList/139</t>
+  </si>
+  <si>
+    <t>clone should not be overriden</t>
+  </si>
+  <si>
+    <t>protected ArrayTaskList clone() throws CloneNotSupportedException</t>
+  </si>
+  <si>
+    <t>Tasks/98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor this method to reduce its Cognitive Complexity from 25 to the 15 allowed. </t>
+  </si>
+  <si>
+    <t>Cognitive Complexity of methods should not be too high</t>
+  </si>
+  <si>
+    <t>DateService/33</t>
+  </si>
+  <si>
+    <t>"static" base class members should not be accessed via derived types</t>
+  </si>
+  <si>
+    <t>Use static access with "java.util.Calendar" for "getInstance".</t>
+  </si>
+  <si>
+    <t>TaskIO/18,19,20</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>Rename this constant name to match the regular expression '^[A-Z][A-Z0-9]*(_[A-Z0-9]+)*$'.</t>
+  </si>
+  <si>
+    <t>Instance methods should not write to "static" fields</t>
+  </si>
+  <si>
+    <t>Make the enclosing method "static" or remove this set.</t>
+  </si>
+  <si>
+    <t>Controller/63,89,123</t>
+  </si>
+  <si>
+    <t>Haven't change anything because it is more readable written like this(ex secondsInDay)</t>
+  </si>
+  <si>
+    <t>Refactored the code into smaller, more manageable parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remove clone() and replace it with a copy constructor in ArrayTaskList and Task. Ensure deep copying of Date objects in Task to avoid shared references. Implement a copy() method in ArrayTaskList that calls the copy constructor.</t>
+  </si>
+  <si>
+    <t>Reference static constants directly from the DateService class</t>
+  </si>
+  <si>
+    <t>Used instance fields instead to avoid shared state issues</t>
   </si>
 </sst>
 </file>
@@ -328,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -397,11 +489,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +536,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -496,9 +602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,9 +642,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,9 +677,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +729,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,7 +927,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -808,19 +948,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -844,10 +984,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -862,10 +1002,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -877,19 +1017,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>45732</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1099,7 +1239,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,19 +1258,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1154,10 +1294,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1172,10 +1312,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1187,17 +1327,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>45732</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1415,8 +1557,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,19 +1578,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1472,10 +1614,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1490,10 +1632,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1505,17 +1647,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>45732</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1531,49 +1675,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -1750,7 +1924,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1932,7 @@
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
@@ -1771,19 +1945,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1807,8 +1981,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1823,8 +1997,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1836,10 +2012,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="24">
         <v>45732</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1859,56 +2035,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -2071,11 +2285,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
